--- a/admin/uploads/import/format/mark_question_import.xlsx
+++ b/admin/uploads/import/format/mark_question_import.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\open\admin\uploads\import\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA570E8C-4E95-4C6D-9C42-D36961248251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961FE65D-3400-439E-89AE-9DE889A91A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1A64E385-A78B-411A-A0DD-DC7D72BEB2B5}"/>
   </bookViews>
@@ -25,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>student_id</t>
-  </si>
-  <si>
-    <t>subject_id</t>
-  </si>
-  <si>
-    <t>exam_id</t>
-  </si>
-  <si>
-    <t>class_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>class_score1</t>
   </si>
@@ -403,18 +391,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29C68A0-DE72-490D-A0E4-14F15E1A7C1F}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,18 +416,6 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
